--- a/Markov_Data.xlsx
+++ b/Markov_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvardhineni\Documents\Python Scripts\Attribution-modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvardhineni\Documents\Python Scripts\Markov---Attribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="17">
   <si>
     <t>Source</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Step Five</t>
-  </si>
-  <si>
-    <t>Step Six</t>
   </si>
   <si>
     <t>Exit</t>
@@ -398,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,10 +409,10 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,11 +431,8 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -455,13 +449,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -472,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -486,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -500,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -514,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -528,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -542,10 +533,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -556,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -570,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -584,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -595,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -609,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -623,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -637,13 +628,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -651,10 +642,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -682,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -696,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -710,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -735,10 +726,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -749,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -774,13 +765,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -805,10 +796,10 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -816,13 +807,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -864,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -968,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1010,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1024,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1094,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1108,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1119,10 +1110,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1133,14 +1124,14 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H50"/>
+  <autoFilter ref="A1:G50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>